--- a/Project-ChildSurvey/Result/ChildSurvey_KK.xlsx
+++ b/Project-ChildSurvey/Result/ChildSurvey_KK.xlsx
@@ -3,25 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883EA38-B476-43BD-917D-3D5ACC93613B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE30AC6-44B0-4A54-ABE2-223A3110A247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="28800" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="중복보호자" sheetId="2" r:id="rId1"/>
     <sheet name="중복이슈" sheetId="1" r:id="rId2"/>
+    <sheet name="빈도분석" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="85">
   <si>
     <t>제목</t>
   </si>
@@ -101,9 +111,6 @@
     <t>보건과 복지</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>010-7327-2926</t>
   </si>
   <si>
@@ -177,13 +184,129 @@
   </si>
   <si>
     <t>010-2407-7277</t>
+  </si>
+  <si>
+    <t>갯수</t>
+  </si>
+  <si>
+    <t>비율</t>
+  </si>
+  <si>
+    <t>연수구</t>
+  </si>
+  <si>
+    <t>계양구</t>
+  </si>
+  <si>
+    <t>부평구</t>
+  </si>
+  <si>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>남동구</t>
+  </si>
+  <si>
+    <t>미추홀구</t>
+  </si>
+  <si>
+    <t>강화군</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>양육자</t>
+  </si>
+  <si>
+    <t>선생님</t>
+  </si>
+  <si>
+    <t>활동가</t>
+  </si>
+  <si>
+    <t>정치인</t>
+  </si>
+  <si>
+    <t>공직자</t>
+  </si>
+  <si>
+    <t>중학교</t>
+  </si>
+  <si>
+    <t>고등학교</t>
+  </si>
+  <si>
+    <t>학교에 다니지 않습니다.</t>
+  </si>
+  <si>
+    <t>고등학교 아동 양육자</t>
+  </si>
+  <si>
+    <t>중학교 아동 양육자</t>
+  </si>
+  <si>
+    <t>초등학교 아동 양육자</t>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>비공</t>
+  </si>
+  <si>
+    <t>인천시 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,20 +315,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="6"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -232,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -240,29 +401,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,236 +839,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B47147B-BDCA-459A-B748-E48D4CDE2935}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B3" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3">
-        <v>13</v>
+      <c r="B5" s="21">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3">
-        <v>12</v>
+      <c r="B7" s="21">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="5">
-        <v>6</v>
+      <c r="B24" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3">
-        <v>5</v>
+      <c r="B25" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="5">
-        <v>3</v>
+      <c r="B26" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="B27" s="21">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -817,1114 +1074,2040 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I8" sqref="A1:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="20">
         <v>2012</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="22">
         <v>2012</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="20">
         <v>2012</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>58</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="22">
         <v>2012</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>139</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="20">
         <v>2012</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>140</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="22">
         <v>2012</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>141</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="20">
         <v>2012</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>142</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="22">
         <v>2012</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>226</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="20">
         <v>2012</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>227</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="22">
         <v>2012</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>228</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="20">
         <v>2012</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>229</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="22">
         <v>2012</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>230</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="20">
         <v>2012</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>330</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="C15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="22">
         <v>2012</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>331</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="20">
         <v>2012</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>332</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="22">
         <v>2012</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
-        <v>333</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="20">
         <v>2012</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="K18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>334</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="22">
         <v>2012</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
-        <v>427</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="20">
         <v>2012</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="K20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>428</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="C21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="22">
         <v>2012</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="K21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
-        <v>429</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="20">
         <v>2012</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>430</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="C23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="22">
         <v>2012</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="H23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="5" t="s">
+      <c r="K23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
-        <v>431</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="20">
         <v>2012</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>516</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="C25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="22">
         <v>2012</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="H25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="5" t="s">
+      <c r="K25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <v>517</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="B26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="20">
         <v>2012</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="H26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="K26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>518</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="C27" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="22">
         <v>2012</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
-        <v>519</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="C28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="20">
         <v>2012</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="K28" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>520</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="C29" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="22">
         <v>2012</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D7844E-2867-484F-A8CE-B17B00E89248}">
+  <dimension ref="A1:X41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.58203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.58203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.58203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.58203125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="2"/>
+    <col min="21" max="21" width="8.6640625" style="9"/>
+    <col min="22" max="22" width="11.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" style="2"/>
+    <col min="24" max="24" width="8.6640625" style="13"/>
+    <col min="25" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4">
+        <v>19.402999999999999</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>134</v>
+      </c>
+      <c r="G2" s="4">
+        <v>28.941700000000001</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4">
+        <v>334</v>
+      </c>
+      <c r="K2" s="4">
+        <v>72.138199999999998</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="4">
+        <v>128</v>
+      </c>
+      <c r="O2" s="4">
+        <v>32.160800000000002</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="4">
+        <v>240</v>
+      </c>
+      <c r="S2" s="4">
+        <v>51.835900000000002</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="4">
+        <v>91</v>
+      </c>
+      <c r="X2" s="11">
+        <v>19.402999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5">
+        <v>82</v>
+      </c>
+      <c r="C3" s="5">
+        <v>17.484000000000002</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="5">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5">
+        <v>11.879</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="5">
+        <v>64</v>
+      </c>
+      <c r="K3" s="5">
+        <v>13.822900000000001</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="5">
+        <v>87</v>
+      </c>
+      <c r="O3" s="5">
+        <v>21.859300000000001</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="5">
+        <v>193</v>
+      </c>
+      <c r="S3" s="5">
+        <v>41.684699999999999</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="5">
+        <v>82</v>
+      </c>
+      <c r="X3" s="12">
+        <v>17.484000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4">
+        <v>15.9915</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10.151199999999999</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="4">
+        <v>46</v>
+      </c>
+      <c r="K4" s="4">
+        <v>9.9352</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="4">
+        <v>80</v>
+      </c>
+      <c r="O4" s="4">
+        <v>20.1005</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="4">
+        <v>30</v>
+      </c>
+      <c r="S4" s="4">
+        <v>6.4794999999999998</v>
+      </c>
+      <c r="U4" s="8"/>
+      <c r="V4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="4">
+        <v>75</v>
+      </c>
+      <c r="X4" s="11">
+        <v>15.9915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5">
+        <v>15.7783</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45</v>
+      </c>
+      <c r="G5" s="5">
+        <v>9.7192000000000007</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.5119</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="5">
+        <v>39</v>
+      </c>
+      <c r="O5" s="5">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="5">
+        <v>74</v>
+      </c>
+      <c r="X5" s="12">
+        <v>15.7783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4">
+        <v>15.7783</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8.8552999999999997</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="4">
+        <v>6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.2959000000000001</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="4">
+        <v>26</v>
+      </c>
+      <c r="O6" s="4">
+        <v>6.5327000000000002</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="4">
+        <v>74</v>
+      </c>
+      <c r="X6" s="11">
+        <v>15.7783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>73</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15.565</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="5">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8.6393000000000004</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="5">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.2959000000000001</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="5">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5">
+        <v>6.2813999999999997</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="5">
+        <v>73</v>
+      </c>
+      <c r="X7" s="12">
+        <v>15.565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="4">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7.7754000000000003</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="4">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4">
+        <v>3.2663000000000002</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="4">
+        <v>134</v>
+      </c>
+      <c r="X8" s="11">
+        <v>28.941700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="5">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5.1836000000000002</v>
+      </c>
+      <c r="U9" s="15"/>
+      <c r="V9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="5">
+        <v>55</v>
+      </c>
+      <c r="X9" s="12">
+        <v>11.879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4.9676</v>
+      </c>
+      <c r="U10" s="15"/>
+      <c r="V10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="4">
+        <v>47</v>
+      </c>
+      <c r="X10" s="11">
+        <v>10.151199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="5">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.8877000000000002</v>
+      </c>
+      <c r="U11" s="15"/>
+      <c r="V11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="5">
+        <v>45</v>
+      </c>
+      <c r="X11" s="12">
+        <v>9.7192000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="4">
+        <v>41</v>
+      </c>
+      <c r="X12" s="11">
+        <v>8.8552999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="5">
+        <v>40</v>
+      </c>
+      <c r="X13" s="12">
+        <v>8.6393000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="4">
+        <v>36</v>
+      </c>
+      <c r="X14" s="11">
+        <v>7.7754000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" s="5">
+        <v>24</v>
+      </c>
+      <c r="X15" s="12">
+        <v>5.1836000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="4">
+        <v>23</v>
+      </c>
+      <c r="X16" s="11">
+        <v>4.9676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="5">
+        <v>18</v>
+      </c>
+      <c r="X17" s="12">
+        <v>3.8877000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="U18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="4">
+        <v>334</v>
+      </c>
+      <c r="X18" s="11">
+        <v>72.138199999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W19" s="5">
+        <v>64</v>
+      </c>
+      <c r="X19" s="12">
+        <v>13.822900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W20" s="4">
+        <v>46</v>
+      </c>
+      <c r="X20" s="11">
+        <v>9.9352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W21" s="5">
+        <v>7</v>
+      </c>
+      <c r="X21" s="12">
+        <v>1.5119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W22" s="4">
+        <v>6</v>
+      </c>
+      <c r="X22" s="11">
+        <v>1.2959000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W23" s="5">
+        <v>6</v>
+      </c>
+      <c r="X23" s="12">
+        <v>1.2959000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="U24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W24" s="4">
+        <v>128</v>
+      </c>
+      <c r="X24" s="11">
+        <v>32.160800000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W25" s="5">
+        <v>87</v>
+      </c>
+      <c r="X25" s="12">
+        <v>21.859300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W26" s="4">
+        <v>80</v>
+      </c>
+      <c r="X26" s="11">
+        <v>20.1005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="32" x14ac:dyDescent="0.45">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W27" s="5">
+        <v>39</v>
+      </c>
+      <c r="X27" s="12">
+        <v>9.7989999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="32" x14ac:dyDescent="0.45">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W28" s="4">
+        <v>26</v>
+      </c>
+      <c r="X28" s="11">
+        <v>6.5327000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="32" x14ac:dyDescent="0.45">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W29" s="5">
+        <v>25</v>
+      </c>
+      <c r="X29" s="12">
+        <v>6.2813999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="32" x14ac:dyDescent="0.45">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W30" s="4">
+        <v>13</v>
+      </c>
+      <c r="X30" s="11">
+        <v>3.2663000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="U31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W31" s="4">
+        <v>240</v>
+      </c>
+      <c r="X31" s="11">
+        <v>51.835900000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W32" s="5">
+        <v>193</v>
+      </c>
+      <c r="X32" s="12">
+        <v>41.684699999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W33" s="4">
+        <v>30</v>
+      </c>
+      <c r="X33" s="11">
+        <v>6.4794999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+    </row>
+    <row r="35" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+    </row>
+    <row r="36" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:24" ht="17" x14ac:dyDescent="0.45">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="U31:U33"/>
+    <mergeCell ref="U2:U7"/>
+    <mergeCell ref="U8:U17"/>
+    <mergeCell ref="U18:U23"/>
+    <mergeCell ref="U24:U30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project-ChildSurvey/Result/ChildSurvey_KK.xlsx
+++ b/Project-ChildSurvey/Result/ChildSurvey_KK.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE30AC6-44B0-4A54-ABE2-223A3110A247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80F0694-2E5F-4747-9CB9-47987D2A9E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3820" windowWidth="28800" windowHeight="15290" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="중복보호자" sheetId="2" r:id="rId1"/>
     <sheet name="중복이슈" sheetId="1" r:id="rId2"/>
     <sheet name="빈도분석" sheetId="3" r:id="rId3"/>
+    <sheet name="토큰비교" sheetId="4" r:id="rId4"/>
+    <sheet name="최적토픽구성" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="160">
   <si>
     <t>제목</t>
   </si>
@@ -296,6 +298,241 @@
   </si>
   <si>
     <t>의견수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아동</t>
+  </si>
+  <si>
+    <t>교육</t>
+  </si>
+  <si>
+    <t>놀이</t>
+  </si>
+  <si>
+    <t>아동들이</t>
+  </si>
+  <si>
+    <t>가족</t>
+  </si>
+  <si>
+    <t>있는</t>
+  </si>
+  <si>
+    <t>환경</t>
+  </si>
+  <si>
+    <t>지원</t>
+  </si>
+  <si>
+    <t>학교</t>
+  </si>
+  <si>
+    <t>만들기</t>
+  </si>
+  <si>
+    <t>시설</t>
+  </si>
+  <si>
+    <t>한다</t>
+  </si>
+  <si>
+    <t>안전</t>
+  </si>
+  <si>
+    <t>아동들</t>
+  </si>
+  <si>
+    <t>활동</t>
+  </si>
+  <si>
+    <t>가족과</t>
+  </si>
+  <si>
+    <t>놀이터</t>
+  </si>
+  <si>
+    <t>건강</t>
+  </si>
+  <si>
+    <t>아동이</t>
+  </si>
+  <si>
+    <t>학생</t>
+  </si>
+  <si>
+    <t>프로그램</t>
+  </si>
+  <si>
+    <t>공간</t>
+  </si>
+  <si>
+    <t>아동의</t>
+  </si>
+  <si>
+    <t>아동들의</t>
+  </si>
+  <si>
+    <t>조사</t>
+  </si>
+  <si>
+    <t>필요합니다</t>
+  </si>
+  <si>
+    <t>존중</t>
+  </si>
+  <si>
+    <t>권리</t>
+  </si>
+  <si>
+    <t>지원금</t>
+  </si>
+  <si>
+    <t>문화</t>
+  </si>
+  <si>
+    <t>확대</t>
+  </si>
+  <si>
+    <t>가정</t>
+  </si>
+  <si>
+    <t>학습</t>
+  </si>
+  <si>
+    <t>의견을</t>
+  </si>
+  <si>
+    <t>주변</t>
+  </si>
+  <si>
+    <t>생활</t>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoyNLP
+(추출총단어:30개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF
+(추출총단어:254)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyBERT
+(추출총단어:1129)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사</t>
+  </si>
+  <si>
+    <t>마음</t>
+  </si>
+  <si>
+    <t>기회</t>
+  </si>
+  <si>
+    <t>즐거운</t>
+  </si>
+  <si>
+    <t>안전하게</t>
+  </si>
+  <si>
+    <t>장소</t>
+  </si>
+  <si>
+    <t>다양한</t>
+  </si>
+  <si>
+    <t>활동을</t>
+  </si>
+  <si>
+    <t>정신</t>
+  </si>
+  <si>
+    <t>합니다</t>
+  </si>
+  <si>
+    <t>상담</t>
+  </si>
+  <si>
+    <t>위한</t>
+  </si>
+  <si>
+    <t>주기</t>
+  </si>
+  <si>
+    <t>공원</t>
+  </si>
+  <si>
+    <t>체험</t>
+  </si>
+  <si>
+    <t>교육을</t>
+  </si>
+  <si>
+    <t>문제</t>
+  </si>
+  <si>
+    <t>정보</t>
+  </si>
+  <si>
+    <t>참여</t>
+  </si>
+  <si>
+    <t>이야기</t>
+  </si>
+  <si>
+    <t>관심</t>
+  </si>
+  <si>
+    <t>Related Keywords</t>
+  </si>
+  <si>
+    <t>Number of Sentences</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Topic 1</t>
+  </si>
+  <si>
+    <t>'아동(38.5%)', '있는(17.3%)', '한다(15.4%)', '학교(15.4%)', '환경(13.5%)'</t>
+  </si>
+  <si>
+    <t>Topic 2</t>
+  </si>
+  <si>
+    <t>'놀이(36.9%)', '있는(23.1%)', '시설(15.4%)', '아동(12.3%)', '아동의(12.3%)'</t>
+  </si>
+  <si>
+    <t>Topic 3</t>
+  </si>
+  <si>
+    <t>'있는(30.4%)', '아동들이(23.9%)', '환경(15.2%)', '있도록(15.2%)', '아동이(15.2%)'</t>
+  </si>
+  <si>
+    <t>Topic 4</t>
+  </si>
+  <si>
+    <t>'교육(44.4%)', '가족과(14.8%)', '있는(14.8%)', '필요(13.0%)', '활동(13.0%)'</t>
+  </si>
+  <si>
+    <t>Topics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,9 +541,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +607,22 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -454,10 +707,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -480,32 +736,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -525,8 +769,51 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -841,225 +1128,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B47147B-BDCA-459A-B748-E48D4CDE2935}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="15">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1094,1104 +1381,1104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="16">
         <v>2012</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="K2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="17">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="18">
         <v>2012</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <v>2012</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="18">
         <v>2012</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="16">
         <v>2012</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="19" t="s">
+      <c r="K6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>2012</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <v>2012</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>2012</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <v>2012</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="19" t="s">
+      <c r="K10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>2012</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="21" t="s">
+      <c r="K11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="18">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <v>2012</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="18">
         <v>2012</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="H13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="21" t="s">
+      <c r="K13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>2012</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="17">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="18">
         <v>2012</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="21" t="s">
+      <c r="H15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="21" t="s">
+      <c r="K15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="16">
         <v>2012</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="19" t="s">
+      <c r="K16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="18">
         <v>2012</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="17">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="16">
         <v>2012</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="19" t="s">
+      <c r="K18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="18">
         <v>2012</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="17">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="16">
         <v>2012</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="19" t="s">
+      <c r="H20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="19" t="s">
+      <c r="K20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="18">
         <v>2012</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="21" t="s">
+      <c r="K21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="16">
         <v>2012</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="17">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="18">
         <v>2012</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="21" t="s">
+      <c r="H23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="21" t="s">
+      <c r="K23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="18">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="16">
         <v>2012</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="17">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="18">
         <v>2012</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="21" t="s">
+      <c r="H25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="21" t="s">
+      <c r="K25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="18">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="16">
         <v>2012</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="19" t="s">
+      <c r="H26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="19" t="s">
+      <c r="K26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="18">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="18">
         <v>2012</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="17">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="16">
         <v>2012</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="19" t="s">
+      <c r="H28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="19" t="s">
+      <c r="K28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="18">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="18">
         <v>2012</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2231,10 +2518,10 @@
     <col min="17" max="18" width="4.5" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.6640625" style="2"/>
-    <col min="21" max="21" width="8.6640625" style="9"/>
+    <col min="21" max="21" width="8.6640625" style="8"/>
     <col min="22" max="22" width="11.5" style="2" customWidth="1"/>
     <col min="23" max="23" width="8.6640625" style="2"/>
-    <col min="24" max="24" width="8.6640625" style="13"/>
+    <col min="24" max="24" width="8.6640625" style="12"/>
     <col min="25" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -2293,7 +2580,7 @@
       <c r="W1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2343,7 +2630,7 @@
       <c r="S2" s="4">
         <v>51.835900000000002</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="25" t="s">
         <v>77</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -2352,7 +2639,7 @@
       <c r="W2" s="4">
         <v>91</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="10">
         <v>19.402999999999999</v>
       </c>
     </row>
@@ -2402,14 +2689,14 @@
       <c r="S3" s="5">
         <v>41.684699999999999</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="U3" s="25"/>
       <c r="V3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="W3" s="5">
         <v>82</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="11">
         <v>17.484000000000002</v>
       </c>
     </row>
@@ -2459,14 +2746,14 @@
       <c r="S4" s="4">
         <v>6.4794999999999998</v>
       </c>
-      <c r="U4" s="8"/>
+      <c r="U4" s="25"/>
       <c r="V4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="W4" s="4">
         <v>75</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="10">
         <v>15.9915</v>
       </c>
     </row>
@@ -2507,14 +2794,14 @@
       <c r="O5" s="5">
         <v>9.7989999999999995</v>
       </c>
-      <c r="U5" s="8"/>
+      <c r="U5" s="25"/>
       <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W5" s="5">
         <v>74</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="11">
         <v>15.7783</v>
       </c>
     </row>
@@ -2555,14 +2842,14 @@
       <c r="O6" s="4">
         <v>6.5327000000000002</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="W6" s="4">
         <v>74</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="10">
         <v>15.7783</v>
       </c>
     </row>
@@ -2603,14 +2890,14 @@
       <c r="O7" s="5">
         <v>6.2813999999999997</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="U7" s="25"/>
       <c r="V7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="W7" s="5">
         <v>73</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="11">
         <v>15.565</v>
       </c>
     </row>
@@ -2634,7 +2921,7 @@
       <c r="O8" s="4">
         <v>3.2663000000000002</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="U8" s="22" t="s">
         <v>78</v>
       </c>
       <c r="V8" s="3" t="s">
@@ -2643,7 +2930,7 @@
       <c r="W8" s="4">
         <v>134</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="10">
         <v>28.941700000000001</v>
       </c>
     </row>
@@ -2660,14 +2947,14 @@
       <c r="G9" s="5">
         <v>5.1836000000000002</v>
       </c>
-      <c r="U9" s="15"/>
+      <c r="U9" s="23"/>
       <c r="V9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="W9" s="5">
         <v>55</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="11">
         <v>11.879</v>
       </c>
     </row>
@@ -2684,14 +2971,14 @@
       <c r="G10" s="4">
         <v>4.9676</v>
       </c>
-      <c r="U10" s="15"/>
+      <c r="U10" s="23"/>
       <c r="V10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="W10" s="4">
         <v>47</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="10">
         <v>10.151199999999999</v>
       </c>
     </row>
@@ -2708,14 +2995,14 @@
       <c r="G11" s="5">
         <v>3.8877000000000002</v>
       </c>
-      <c r="U11" s="15"/>
+      <c r="U11" s="23"/>
       <c r="V11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="W11" s="5">
         <v>45</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="11">
         <v>9.7192000000000007</v>
       </c>
     </row>
@@ -2723,14 +3010,14 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
-      <c r="U12" s="15"/>
+      <c r="U12" s="23"/>
       <c r="V12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W12" s="4">
         <v>41</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="10">
         <v>8.8552999999999997</v>
       </c>
     </row>
@@ -2738,14 +3025,14 @@
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
-      <c r="U13" s="15"/>
+      <c r="U13" s="23"/>
       <c r="V13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="W13" s="5">
         <v>40</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="11">
         <v>8.6393000000000004</v>
       </c>
     </row>
@@ -2753,14 +3040,14 @@
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="U14" s="15"/>
+      <c r="U14" s="23"/>
       <c r="V14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="W14" s="4">
         <v>36</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="10">
         <v>7.7754000000000003</v>
       </c>
     </row>
@@ -2768,14 +3055,14 @@
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
-      <c r="U15" s="15"/>
+      <c r="U15" s="23"/>
       <c r="V15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="W15" s="5">
         <v>24</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="11">
         <v>5.1836000000000002</v>
       </c>
     </row>
@@ -2783,14 +3070,14 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="U16" s="15"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="W16" s="4">
         <v>23</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="10">
         <v>4.9676</v>
       </c>
     </row>
@@ -2798,14 +3085,14 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="U17" s="16"/>
+      <c r="U17" s="24"/>
       <c r="V17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W17" s="5">
         <v>18</v>
       </c>
-      <c r="X17" s="12">
+      <c r="X17" s="11">
         <v>3.8877000000000002</v>
       </c>
     </row>
@@ -2813,7 +3100,7 @@
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="U18" s="14" t="s">
+      <c r="U18" s="22" t="s">
         <v>79</v>
       </c>
       <c r="V18" s="3" t="s">
@@ -2822,7 +3109,7 @@
       <c r="W18" s="4">
         <v>334</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="10">
         <v>72.138199999999998</v>
       </c>
     </row>
@@ -2830,14 +3117,14 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="U19" s="15"/>
+      <c r="U19" s="23"/>
       <c r="V19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="W19" s="5">
         <v>64</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19" s="11">
         <v>13.822900000000001</v>
       </c>
     </row>
@@ -2845,14 +3132,14 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="U20" s="15"/>
+      <c r="U20" s="23"/>
       <c r="V20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="W20" s="4">
         <v>46</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="10">
         <v>9.9352</v>
       </c>
     </row>
@@ -2860,14 +3147,14 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="U21" s="15"/>
+      <c r="U21" s="23"/>
       <c r="V21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="W21" s="5">
         <v>7</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21" s="11">
         <v>1.5119</v>
       </c>
     </row>
@@ -2875,14 +3162,14 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="U22" s="15"/>
+      <c r="U22" s="23"/>
       <c r="V22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="W22" s="4">
         <v>6</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="10">
         <v>1.2959000000000001</v>
       </c>
     </row>
@@ -2890,14 +3177,14 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="U23" s="16"/>
+      <c r="U23" s="24"/>
       <c r="V23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="W23" s="5">
         <v>6</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23" s="11">
         <v>1.2959000000000001</v>
       </c>
     </row>
@@ -2905,7 +3192,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="U24" s="14" t="s">
+      <c r="U24" s="22" t="s">
         <v>80</v>
       </c>
       <c r="V24" s="3" t="s">
@@ -2914,7 +3201,7 @@
       <c r="W24" s="4">
         <v>128</v>
       </c>
-      <c r="X24" s="11">
+      <c r="X24" s="10">
         <v>32.160800000000002</v>
       </c>
     </row>
@@ -2922,14 +3209,14 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="U25" s="15"/>
+      <c r="U25" s="23"/>
       <c r="V25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="W25" s="5">
         <v>87</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25" s="11">
         <v>21.859300000000001</v>
       </c>
     </row>
@@ -2937,14 +3224,14 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="U26" s="15"/>
+      <c r="U26" s="23"/>
       <c r="V26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="W26" s="4">
         <v>80</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X26" s="10">
         <v>20.1005</v>
       </c>
     </row>
@@ -2952,14 +3239,14 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="U27" s="15"/>
+      <c r="U27" s="23"/>
       <c r="V27" s="1" t="s">
         <v>68</v>
       </c>
       <c r="W27" s="5">
         <v>39</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27" s="11">
         <v>9.7989999999999995</v>
       </c>
     </row>
@@ -2967,14 +3254,14 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="U28" s="15"/>
+      <c r="U28" s="23"/>
       <c r="V28" s="3" t="s">
         <v>69</v>
       </c>
       <c r="W28" s="4">
         <v>26</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="10">
         <v>6.5327000000000002</v>
       </c>
     </row>
@@ -2982,14 +3269,14 @@
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="U29" s="15"/>
+      <c r="U29" s="23"/>
       <c r="V29" s="1" t="s">
         <v>70</v>
       </c>
       <c r="W29" s="5">
         <v>25</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="11">
         <v>6.2813999999999997</v>
       </c>
     </row>
@@ -2997,14 +3284,14 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="U30" s="16"/>
+      <c r="U30" s="24"/>
       <c r="V30" s="3" t="s">
         <v>71</v>
       </c>
       <c r="W30" s="4">
         <v>13</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X30" s="10">
         <v>3.2663000000000002</v>
       </c>
     </row>
@@ -3012,7 +3299,7 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="U31" s="14" t="s">
+      <c r="U31" s="22" t="s">
         <v>81</v>
       </c>
       <c r="V31" s="3" t="s">
@@ -3021,7 +3308,7 @@
       <c r="W31" s="4">
         <v>240</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X31" s="10">
         <v>51.835900000000002</v>
       </c>
     </row>
@@ -3029,14 +3316,14 @@
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="U32" s="15"/>
+      <c r="U32" s="23"/>
       <c r="V32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="W32" s="5">
         <v>193</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="11">
         <v>41.684699999999999</v>
       </c>
     </row>
@@ -3044,14 +3331,14 @@
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="U33" s="16"/>
+      <c r="U33" s="24"/>
       <c r="V33" s="3" t="s">
         <v>73</v>
       </c>
       <c r="W33" s="4">
         <v>30</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X33" s="10">
         <v>6.4794999999999998</v>
       </c>
     </row>
@@ -3110,4 +3397,846 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65CFD3A-FBAE-49A2-B145-ABA632CCC1B4}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+      <c r="B2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="19">
+        <v>412</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="19">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="19">
+        <v>228</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="19">
+        <v>14</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="19">
+        <v>210</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="19">
+        <v>14</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="19">
+        <v>127</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="19">
+        <v>12</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="19">
+        <v>109</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="19">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="19">
+        <v>103</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="19">
+        <v>10</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="19">
+        <v>96</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="19">
+        <v>9</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="19">
+        <v>91</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="19">
+        <v>9</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="19">
+        <v>87</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="19">
+        <v>8</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19">
+        <v>82</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="19">
+        <v>8</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="19">
+        <v>63</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="19">
+        <v>7</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="19">
+        <v>57</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="19">
+        <v>7</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="19">
+        <v>57</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="19">
+        <v>7</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="19">
+        <v>55</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="19">
+        <v>7</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="19">
+        <v>50</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="19">
+        <v>7</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="19">
+        <v>44</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="19">
+        <v>7</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="19">
+        <v>42</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="19">
+        <v>6</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="19">
+        <v>34</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="19">
+        <v>6</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="19">
+        <v>25</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="19">
+        <v>6</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="19">
+        <v>23</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="19">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="19">
+        <v>22</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="19">
+        <v>6</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="21">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="19">
+        <v>21</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="19">
+        <v>5</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="21">
+        <v>23</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="19">
+        <v>20</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="19">
+        <v>5</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="21">
+        <v>24</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="19">
+        <v>17</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="19">
+        <v>5</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="21">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="19">
+        <v>15</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="19">
+        <v>5</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="21">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="19">
+        <v>15</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="19">
+        <v>5</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="21">
+        <v>27</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="19">
+        <v>14</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="19">
+        <v>5</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="21">
+        <v>28</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="19">
+        <v>13</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="19">
+        <v>5</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="21">
+        <v>29</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="19">
+        <v>10</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="19">
+        <v>5</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="21">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="19">
+        <v>9</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="19">
+        <v>5</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="19">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4213B7A8-E06E-4179-8243-33C97D08A69B}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.4140625" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="30">
+        <v>147</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.31340000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="30">
+        <v>105</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.22389999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="30">
+        <v>108</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.2303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="30">
+        <v>109</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.2324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>